--- a/MainTop/24.12.2025 бирки/24.12.2025 бирки.xlsx
+++ b/MainTop/24.12.2025 бирки/24.12.2025 бирки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\24.12.2025 бирки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\24.12.2025 бирки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC162DA-11EC-4984-9151-949D736CAAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C37BC8-3024-4634-8982-F88DFDAD620E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="7">
   <si>
     <t>Артикул</t>
   </si>
   <si>
     <t>штрихкод</t>
+  </si>
+  <si>
+    <t>OZN1054576404</t>
+  </si>
+  <si>
+    <t>OZN1158935807</t>
+  </si>
+  <si>
+    <t>OZN1214823094</t>
+  </si>
+  <si>
+    <t>OZN1244859383</t>
+  </si>
+  <si>
+    <t>OZN1215540233</t>
   </si>
 </sst>
 </file>
@@ -371,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,373 +409,976 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MainTop/24.12.2025 бирки/24.12.2025 бирки.xlsx
+++ b/MainTop/24.12.2025 бирки/24.12.2025 бирки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\24.12.2025 бирки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\24.12.2025 бирки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C37BC8-3024-4634-8982-F88DFDAD620E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE0CA8C-65FA-4CD3-8870-D6C07CAEF99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
